--- a/积累库/卵用没有小知识.xlsx
+++ b/积累库/卵用没有小知识.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14625"/>
+    <workbookView windowWidth="11010" windowHeight="3960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>1.爱斯基摩人能够认识很多种白色，这与他们生活的环境有关</t>
+  </si>
+  <si>
+    <t>2.五谷:稻、黍、稷、麦、菽</t>
   </si>
 </sst>
 </file>
@@ -42,9 +45,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,10 +507,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,7 +519,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,13 +528,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,8 +643,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,17 +1001,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="A1 G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
